--- a/biology/Histoire de la zoologie et de la botanique/Adolf_Portmann/Adolf_Portmann.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Adolf_Portmann/Adolf_Portmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adolf Portmann, né le 27 mai 1897 à Bâle et mort à Binningen près de Bâle le 28 juin 1982, est un zoologiste suisse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été le disciple du zoologiste Friedrich Zschokke[Qui ?] à Bâle, où il soutient en 1921 sa thèse de doctorat Les Odonates près de Bâle. Contribution à la classification biologique des libellules en Europe centrale.
 Après avoir vécu à Genève, Munich, Paris et Berlin il travaille dans des laboratoires maritimes à Banyuls-sur-Mer, Roscoff, Villefranche-sur-Mer et sur l'île d'Helgoland, en étudiant surtout des escargots marins, Opisthobranchia. En 1931, il devient à son tour professeur de zoologie à l'Université de Bâle, puis il s'intéresse au comportement des oiseaux. Élargissant son champ de recherche, il devient expert en morphologie comparée des vertébrés.
@@ -545,7 +559,9 @@
           <t>Thèmes de la recherche de Portmann</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon le concept de prématurité physiologique[Quoi ?] (proche du concept de "néoténie"), l'homme est un animal « né trop tôt ». Bien que le fœtus connaisse dans l’utérus une maturation de sa coordination motrice et de ses organes sensoriels, l’être humain est au moment de sa naissance, complètement impuissant. Ce fait contraste avec la maturité des autres mammifères supérieurs à la naissance (par exemple, les éléphants, ou les chevaux). Cette caractéristique de l'être humain entraîne que de nombreux processus de développement doivent être intégrés après la naissance dans l’environnement socio-culturel. En raison de sa dépendance à l’égard des interactions sociales de l’homme et les influences environnementales l’être humain doit leur être ouvert en permanence. Selon Portmann, cette capacité toute spéciale « d’ouverture » est une condition préalable pour l’apprentissage culturel et spirituel.
 Un autre point, encore plus important dans les recherches et les publications de Portmann, est la question de la forme extérieure des animaux, en particulier dans ses travaux sur "la forme de l’animal", sur "le camouflage dans le règne animal", ou sur "les nouveaux moyens de la biologie". Portmann s’expliquera tout au long de sa vie sur la thèse très controversée selon laquelle la conception de la surface n’est pas absolument coïncidente avec sa valeur adaptative. Ses critiques empiriquement et théoriquement bien fondées des idées de "l’évolutionnisme extrême" sont toujours utiles pour ceux qui ne peuvent s’y résoudre, notamment son concept de "valeur de représentation".
@@ -581,7 +597,9 @@
           <t>Liste partielle des publications d’Adolf Portmann</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Einführung in die vergleichende Morphologie der Wirbeltiere (1948) (Introduction à la morphologie comparée des vertébrés)
 Die Tiergestalt (1948) (La forme animale, Paris, Payot, 1961; rééditée avec une préface et une nouvelle traduction de Jacques Dewitte, éd. La Bibliothèque, 2013)
